--- a/StructureDefinition-med-prescription-cancel-reason.xlsx
+++ b/StructureDefinition-med-prescription-cancel-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T19:12:46+00:00</t>
+    <t>2023-05-07T19:13:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-prescription-cancel-reason.xlsx
+++ b/StructureDefinition-med-prescription-cancel-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T19:13:00+00:00</t>
+    <t>2023-05-07T19:16:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-prescription-cancel-reason.xlsx
+++ b/StructureDefinition-med-prescription-cancel-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T19:16:02+00:00</t>
+    <t>2023-05-07T21:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-prescription-cancel-reason.xlsx
+++ b/StructureDefinition-med-prescription-cancel-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T21:08:14+00:00</t>
+    <t>2023-05-07T21:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-prescription-cancel-reason.xlsx
+++ b/StructureDefinition-med-prescription-cancel-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T21:39:12+00:00</t>
+    <t>2023-05-07T21:52:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-prescription-cancel-reason.xlsx
+++ b/StructureDefinition-med-prescription-cancel-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T21:52:36+00:00</t>
+    <t>2023-05-07T22:07:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-prescription-cancel-reason.xlsx
+++ b/StructureDefinition-med-prescription-cancel-reason.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T22:07:44+00:00</t>
+    <t>2023-05-07T22:12:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 TC</t>
+    <t>HL7 PT TC</t>
   </si>
   <si>
     <t>Contact</t>

--- a/StructureDefinition-med-prescription-cancel-reason.xlsx
+++ b/StructureDefinition-med-prescription-cancel-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T22:12:24+00:00</t>
+    <t>2023-05-07T22:29:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-prescription-cancel-reason.xlsx
+++ b/StructureDefinition-med-prescription-cancel-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T22:29:01+00:00</t>
+    <t>2023-05-07T22:36:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-prescription-cancel-reason.xlsx
+++ b/StructureDefinition-med-prescription-cancel-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T22:36:34+00:00</t>
+    <t>2023-05-07T22:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-prescription-cancel-reason.xlsx
+++ b/StructureDefinition-med-prescription-cancel-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T22:59:45+00:00</t>
+    <t>2023-05-07T23:08:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-prescription-cancel-reason.xlsx
+++ b/StructureDefinition-med-prescription-cancel-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:08:30+00:00</t>
+    <t>2023-05-07T23:16:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-prescription-cancel-reason.xlsx
+++ b/StructureDefinition-med-prescription-cancel-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:16:14+00:00</t>
+    <t>2023-05-07T23:22:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-prescription-cancel-reason.xlsx
+++ b/StructureDefinition-med-prescription-cancel-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:22:06+00:00</t>
+    <t>2023-05-07T23:26:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-prescription-cancel-reason.xlsx
+++ b/StructureDefinition-med-prescription-cancel-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:26:27+00:00</t>
+    <t>2023-05-07T23:39:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -129,7 +129,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:DataElement</t>
+    <t>element:Resource</t>
   </si>
   <si>
     <t>ID</t>

--- a/StructureDefinition-med-prescription-cancel-reason.xlsx
+++ b/StructureDefinition-med-prescription-cancel-reason.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="107">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-07T23:39:48+00:00</t>
+    <t>2023-05-08T00:33:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>required</t>
+  </si>
+  <si>
+    <t>http://example.com/fhir/example/ValueSet/MedPrescriptionCancelReasonVS</t>
   </si>
 </sst>
 </file>
@@ -684,7 +687,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="70.890625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1289,7 +1292,7 @@
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-med-prescription-cancel-reason.xlsx
+++ b/StructureDefinition-med-prescription-cancel-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-08T00:33:17+00:00</t>
+    <t>2023-05-08T00:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-med-prescription-cancel-reason.xlsx
+++ b/StructureDefinition-med-prescription-cancel-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-08T00:44:39+00:00</t>
+    <t>2023-06-02T10:26:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
